--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BCANCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BCANCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>BCANCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19496.86332914859</v>
       </c>
       <c r="C2" t="n">
-        <v>108.13119202464146</v>
+        <v>16605.687500813372</v>
       </c>
       <c r="D2" t="n">
-        <v>78.08906323100263</v>
-      </c>
-      <c r="E2" t="n">
-        <v>138.1733208182803</v>
+        <v>22388.039157483807</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20000.99746242768</v>
       </c>
       <c r="C3" t="n">
-        <v>109.68095577783946</v>
+        <v>14869.081483147527</v>
       </c>
       <c r="D3" t="n">
-        <v>75.2855037064054</v>
-      </c>
-      <c r="E3" t="n">
-        <v>144.07640784927352</v>
+        <v>25132.913441707835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20024.664519848266</v>
       </c>
       <c r="C4" t="n">
-        <v>111.25118309597283</v>
+        <v>13761.066490114697</v>
       </c>
       <c r="D4" t="n">
-        <v>74.03191012929591</v>
-      </c>
-      <c r="E4" t="n">
-        <v>148.47045606264973</v>
+        <v>26288.262549581836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20279.45258282065</v>
       </c>
       <c r="C5" t="n">
-        <v>112.84196853479285</v>
+        <v>12899.189996177443</v>
       </c>
       <c r="D5" t="n">
-        <v>73.71319034723122</v>
-      </c>
-      <c r="E5" t="n">
-        <v>151.97074672235448</v>
+        <v>27659.715169463856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20510.584722619875</v>
       </c>
       <c r="C6" t="n">
-        <v>114.574157342812</v>
+        <v>12230.846029959903</v>
       </c>
       <c r="D6" t="n">
-        <v>74.1246805355479</v>
-      </c>
-      <c r="E6" t="n">
-        <v>155.0236341500761</v>
+        <v>28790.323415279847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20847.950624283993</v>
       </c>
       <c r="C7" t="n">
-        <v>116.10058072630133</v>
+        <v>11727.238343135055</v>
       </c>
       <c r="D7" t="n">
-        <v>74.72514458635655</v>
-      </c>
-      <c r="E7" t="n">
-        <v>157.4760168662461</v>
+        <v>29968.66290543293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20951.846287198212</v>
       </c>
       <c r="C8" t="n">
-        <v>117.6509906115638</v>
+        <v>11074.8018014426</v>
       </c>
       <c r="D8" t="n">
-        <v>75.62067587249625</v>
-      </c>
-      <c r="E8" t="n">
-        <v>159.68130535063133</v>
+        <v>30828.890772953826</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21168.038095493543</v>
       </c>
       <c r="C9" t="n">
-        <v>119.22494981110418</v>
+        <v>10582.592187751186</v>
       </c>
       <c r="D9" t="n">
-        <v>76.72878801248224</v>
-      </c>
-      <c r="E9" t="n">
-        <v>161.7211116097261</v>
+        <v>31753.4840032359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21417.738062390476</v>
       </c>
       <c r="C10" t="n">
-        <v>120.94285209017985</v>
+        <v>10171.13255779829</v>
       </c>
       <c r="D10" t="n">
-        <v>78.11400079450597</v>
-      </c>
-      <c r="E10" t="n">
-        <v>163.77170338585373</v>
+        <v>32664.34356698266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21746.171382227287</v>
       </c>
       <c r="C11" t="n">
-        <v>122.45714531755644</v>
+        <v>9873.93379731353</v>
       </c>
       <c r="D11" t="n">
-        <v>79.39004994442683</v>
-      </c>
-      <c r="E11" t="n">
-        <v>165.52424069068604</v>
+        <v>33618.40896714105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>21854.36431792855</v>
       </c>
       <c r="C12" t="n">
-        <v>123.99725594203261</v>
+        <v>9388.420378486593</v>
       </c>
       <c r="D12" t="n">
-        <v>80.75922300483965</v>
-      </c>
-      <c r="E12" t="n">
-        <v>167.23528887922555</v>
+        <v>34320.30825737051</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>22068.48880081189</v>
       </c>
       <c r="C13" t="n">
-        <v>125.56247042536668</v>
+        <v>9035.595759388678</v>
       </c>
       <c r="D13" t="n">
-        <v>82.20162538243436</v>
-      </c>
-      <c r="E13" t="n">
-        <v>168.923315468299</v>
+        <v>35101.38184223511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22319.183313452333</v>
       </c>
       <c r="C14" t="n">
-        <v>127.27294789375784</v>
+        <v>8743.117331101492</v>
       </c>
       <c r="D14" t="n">
-        <v>83.82378205738485</v>
-      </c>
-      <c r="E14" t="n">
-        <v>170.72211373013084</v>
+        <v>35895.24929580317</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22647.138178745805</v>
       </c>
       <c r="C15" t="n">
-        <v>128.78093699274413</v>
+        <v>8548.754932855554</v>
       </c>
       <c r="D15" t="n">
-        <v>85.26821126819955</v>
-      </c>
-      <c r="E15" t="n">
-        <v>172.2936627172887</v>
+        <v>36745.52142463606</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22755.561288626122</v>
       </c>
       <c r="C16" t="n">
-        <v>130.31569501815082</v>
+        <v>8153.558189112431</v>
       </c>
       <c r="D16" t="n">
-        <v>86.75720604685166</v>
-      </c>
-      <c r="E16" t="n">
-        <v>173.87418398945</v>
+        <v>37357.564388139814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22969.575039667867</v>
       </c>
       <c r="C17" t="n">
-        <v>131.87636481028812</v>
+        <v>7880.7399736476455</v>
       </c>
       <c r="D17" t="n">
-        <v>88.28491458900291</v>
-      </c>
-      <c r="E17" t="n">
-        <v>175.46781503157334</v>
+        <v>38058.41010568809</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>23220.3228230131</v>
       </c>
       <c r="C18" t="n">
-        <v>133.58298355176817</v>
+        <v>7659.885255206476</v>
       </c>
       <c r="D18" t="n">
-        <v>89.96778678157213</v>
-      </c>
-      <c r="E18" t="n">
-        <v>177.1981803219642</v>
+        <v>38780.76039081972</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>23548.252060917483</v>
       </c>
       <c r="C19" t="n">
-        <v>135.0876963504009</v>
+        <v>7530.088140766162</v>
       </c>
       <c r="D19" t="n">
-        <v>91.45538854020882</v>
-      </c>
-      <c r="E19" t="n">
-        <v>178.720004160593</v>
+        <v>39566.41598106881</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>23656.6874995829</v>
       </c>
       <c r="C20" t="n">
-        <v>136.61967259200844</v>
+        <v>7193.519735395321</v>
       </c>
       <c r="D20" t="n">
-        <v>92.97503347212883</v>
-      </c>
-      <c r="E20" t="n">
-        <v>180.26431171188807</v>
+        <v>40119.85526377048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>23870.69531951159</v>
       </c>
       <c r="C21" t="n">
-        <v>138.17798047581314</v>
+        <v>6974.239187280189</v>
       </c>
       <c r="D21" t="n">
-        <v>94.52445378743455</v>
-      </c>
-      <c r="E21" t="n">
-        <v>181.83150716419175</v>
+        <v>40767.151451743</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>24121.44595618761</v>
       </c>
       <c r="C22" t="n">
-        <v>139.88259380947773</v>
+        <v>6802.5384437059765</v>
       </c>
       <c r="D22" t="n">
-        <v>96.22266113172046</v>
-      </c>
-      <c r="E22" t="n">
-        <v>183.542526487235</v>
+        <v>41440.353468669244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>24449.37382141599</v>
       </c>
       <c r="C23" t="n">
-        <v>141.3856038915187</v>
+        <v>6718.076927361692</v>
       </c>
       <c r="D23" t="n">
-        <v>97.72105367322578</v>
-      </c>
-      <c r="E23" t="n">
-        <v>185.05015410981164</v>
+        <v>42180.67071547029</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>24557.809920446274</v>
       </c>
       <c r="C24" t="n">
-        <v>142.9161344203044</v>
+        <v>6423.499360378175</v>
       </c>
       <c r="D24" t="n">
-        <v>99.24825568692589</v>
-      </c>
-      <c r="E24" t="n">
-        <v>186.5840131536829</v>
+        <v>42692.12048051438</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24771.817422687644</v>
       </c>
       <c r="C25" t="n">
-        <v>144.4732148035529</v>
+        <v>6243.257023147977</v>
       </c>
       <c r="D25" t="n">
-        <v>100.8029366772384</v>
-      </c>
-      <c r="E25" t="n">
-        <v>188.14349292986742</v>
+        <v>43300.37782222732</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25022.568212196195</v>
       </c>
       <c r="C26" t="n">
-        <v>146.17678591251521</v>
+        <v>6107.97382145295</v>
       </c>
       <c r="D26" t="n">
-        <v>102.50477812846286</v>
-      </c>
-      <c r="E26" t="n">
-        <v>189.84879369656758</v>
+        <v>43937.16260293944</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25350.49600390013</v>
       </c>
       <c r="C27" t="n">
-        <v>147.6789110806353</v>
+        <v>6057.590269006827</v>
       </c>
       <c r="D27" t="n">
-        <v>104.00565641645451</v>
-      </c>
-      <c r="E27" t="n">
-        <v>191.35216574481606</v>
+        <v>44643.401738793444</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25458.932138301443</v>
       </c>
       <c r="C28" t="n">
-        <v>149.20869026218682</v>
+        <v>5794.9919861318795</v>
       </c>
       <c r="D28" t="n">
-        <v>105.53453673529474</v>
-      </c>
-      <c r="E28" t="n">
-        <v>192.88284378907892</v>
+        <v>45122.87229047101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25672.939623526574</v>
       </c>
       <c r="C29" t="n">
-        <v>150.76513270466745</v>
+        <v>5644.837542281151</v>
       </c>
       <c r="D29" t="n">
-        <v>107.09033119270005</v>
-      </c>
-      <c r="E29" t="n">
-        <v>194.43993421663487</v>
+        <v>45701.041704772004</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>25923.69042122127</v>
       </c>
       <c r="C30" t="n">
-        <v>152.46816216204067</v>
+        <v>5537.930596811933</v>
       </c>
       <c r="D30" t="n">
-        <v>108.79289351896638</v>
-      </c>
-      <c r="E30" t="n">
-        <v>196.14343080511495</v>
+        <v>46309.4502456306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>26251.61820898703</v>
       </c>
       <c r="C31" t="n">
-        <v>153.96982743410337</v>
+        <v>5514.368288296266</v>
       </c>
       <c r="D31" t="n">
-        <v>110.29422203597586</v>
-      </c>
-      <c r="E31" t="n">
-        <v>197.64543283223085</v>
+        <v>46988.8681296778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>26360.054345282915</v>
       </c>
       <c r="C32" t="n">
-        <v>155.49921613515443</v>
+        <v>5277.173495606899</v>
       </c>
       <c r="D32" t="n">
-        <v>111.82336796951374</v>
-      </c>
-      <c r="E32" t="n">
-        <v>199.17506430079513</v>
+        <v>47442.93519495893</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>26574.06182959661</v>
       </c>
       <c r="C33" t="n">
-        <v>157.05532703528155</v>
+        <v>5151.12562624006</v>
       </c>
       <c r="D33" t="n">
-        <v>113.37930385764315</v>
-      </c>
-      <c r="E33" t="n">
-        <v>200.73135021291998</v>
+        <v>47996.99803295316</v>
       </c>
     </row>
   </sheetData>
